--- a/data/old/FOREX_3A.xlsx
+++ b/data/old/FOREX_3A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -80,12 +80,18 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -299,12 +305,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -494,6 +506,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Czech Rep.</t>
   </si>
   <si>
@@ -590,6 +605,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Eswatini, Kingdom of</t>
   </si>
   <si>
@@ -602,6 +620,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -626,6 +647,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Fiji, Rep. of</t>
   </si>
   <si>
@@ -650,6 +674,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -662,6 +689,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -686,6 +716,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -710,6 +743,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -728,6 +764,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -770,6 +809,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -788,6 +830,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -854,6 +899,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -881,6 +929,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -899,6 +950,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -908,6 +962,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -932,6 +989,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
@@ -944,6 +1004,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -1007,12 +1070,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -1043,6 +1112,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1067,12 +1139,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1130,6 +1208,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1148,6 +1229,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1160,6 +1244,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
@@ -1202,6 +1289,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1268,6 +1358,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1298,6 +1391,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -1367,6 +1463,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Slovenia, Rep. of</t>
   </si>
   <si>
@@ -1415,12 +1514,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1448,6 +1553,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -1484,6 +1592,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1508,6 +1619,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
@@ -1541,6 +1655,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
@@ -1559,6 +1676,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1583,6 +1703,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -1601,6 +1724,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -1637,6 +1763,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
@@ -1673,6 +1802,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
@@ -1688,28 +1820,43 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2263,7 +2410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T206"/>
+  <dimension ref="A1:U206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2291,6 +2438,7 @@
     <col min="18" max="18" width="9.710938" customWidth="1"/>
     <col min="19" max="19" width="9.710938" customWidth="1"/>
     <col min="20" max="20" width="9.710938" customWidth="1"/>
+    <col min="21" max="21" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2314,6 +2462,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2338,6 +2487,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2362,6 +2512,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2384,6 +2535,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2408,6 +2560,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2430,6 +2583,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2487,17 +2641,20 @@
       <c r="S7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2549,15 +2706,18 @@
       </c>
       <c r="T8" s="15">
         <v>111.051900074174</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -2609,15 +2769,18 @@
       </c>
       <c r="T9" s="20">
         <v>145.23667211568201</v>
+      </c>
+      <c r="U9" s="20">
+        <v>149.11272748648301</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -2669,75 +2832,81 @@
       </c>
       <c r="T10" s="22">
         <v>190.30540892822401</v>
+      </c>
+      <c r="U10" s="22">
+        <v>194.31624942441701</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T11" s="20">
         <v>1.17371727328015</v>
+      </c>
+      <c r="U11" s="20">
+        <v>1.23573533274612</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -2789,15 +2958,18 @@
       </c>
       <c r="T12" s="22">
         <v>945.140678222421</v>
+      </c>
+      <c r="U12" s="22">
+        <v>776.74798773396003</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -2849,15 +3021,18 @@
       </c>
       <c r="T13" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U13" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -2909,15 +3084,18 @@
       </c>
       <c r="T14" s="22">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U14" s="22">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -2969,15 +3147,18 @@
       </c>
       <c r="T15" s="20">
         <v>121.05456457083601</v>
+      </c>
+      <c r="U15" s="20">
+        <v>143.62631964203999</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3029,15 +3210,18 @@
       </c>
       <c r="T16" s="22">
         <v>752.66989766892596</v>
+      </c>
+      <c r="U16" s="22">
+        <v>672.00098531406195</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3089,15 +3273,18 @@
       </c>
       <c r="T17" s="20">
         <v>2.57808055421531</v>
+      </c>
+      <c r="U17" s="20">
+        <v>2.50527296978417</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -3149,15 +3336,18 @@
       </c>
       <c r="T18" s="22">
         <v>1.8699928149078999</v>
+      </c>
+      <c r="U18" s="22">
+        <v>1.92887794634544</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -3209,15 +3399,18 @@
       </c>
       <c r="T19" s="20">
         <v>2.4484563922715199</v>
+      </c>
+      <c r="U19" s="20">
+        <v>2.3793095243760298</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -3269,15 +3462,18 @@
       </c>
       <c r="T20" s="22">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U20" s="22">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -3329,15 +3525,18 @@
       </c>
       <c r="T21" s="20">
         <v>0.54154094323181801</v>
+      </c>
+      <c r="U21" s="20">
+        <v>0.52624728303846202</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -3389,15 +3588,18 @@
       </c>
       <c r="T22" s="22">
         <v>122.134765920368</v>
+      </c>
+      <c r="U22" s="22">
+        <v>120.085151289096</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -3449,15 +3651,18 @@
       </c>
       <c r="T23" s="20">
         <v>2.8805369320841399</v>
+      </c>
+      <c r="U23" s="20">
+        <v>2.7991876757365</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -3509,15 +3714,18 @@
       </c>
       <c r="T24" s="22">
         <v>3.7143083470758902</v>
+      </c>
+      <c r="U24" s="22">
+        <v>3.5663050582720901</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -3569,15 +3777,18 @@
       </c>
       <c r="T25" s="20">
         <v>2.8805369320841399</v>
+      </c>
+      <c r="U25" s="20">
+        <v>2.7991876757365</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -3629,15 +3840,18 @@
       </c>
       <c r="T26" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U26" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -3689,15 +3903,18 @@
       </c>
       <c r="T27" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U27" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -3749,15 +3966,18 @@
       </c>
       <c r="T28" s="22">
         <v>105.216796410851</v>
+      </c>
+      <c r="U28" s="22">
+        <v>105.456736455081</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -3809,15 +4029,18 @@
       </c>
       <c r="T29" s="20">
         <v>9.9522551003506994</v>
+      </c>
+      <c r="U29" s="20">
+        <v>9.6711934196696099</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -3869,15 +4092,18 @@
       </c>
       <c r="T30" s="22">
         <v>2.2937225898907601</v>
+      </c>
+      <c r="U30" s="22">
+        <v>2.4151825140344299</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -3929,15 +4155,18 @@
       </c>
       <c r="T31" s="20">
         <v>15.5396325875143</v>
+      </c>
+      <c r="U31" s="20">
+        <v>16.435150519319301</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -3989,15 +4218,18 @@
       </c>
       <c r="T32" s="22">
         <v>7.4837789764011999</v>
+      </c>
+      <c r="U32" s="22">
+        <v>7.8095936559210504</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -4049,15 +4281,18 @@
       </c>
       <c r="T33" s="20">
         <v>1.9230464558593701</v>
+      </c>
+      <c r="U33" s="20">
+        <v>1.90554701025762</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -4109,15 +4344,18 @@
       </c>
       <c r="T34" s="22">
         <v>2.2956439080244602</v>
+      </c>
+      <c r="U34" s="22">
+        <v>2.4169585986146802</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -4169,15 +4407,18 @@
       </c>
       <c r="T35" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U35" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -4229,15 +4470,18 @@
       </c>
       <c r="T36" s="22">
         <v>2803.3385423042901</v>
+      </c>
+      <c r="U36" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -4289,15 +4533,18 @@
       </c>
       <c r="T37" s="20">
         <v>129.31454743164099</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -4349,15 +4596,18 @@
       </c>
       <c r="T38" s="22">
         <v>5871.2544018204999</v>
+      </c>
+      <c r="U38" s="22">
+        <v>5757.2292520710498</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -4409,15 +4659,18 @@
       </c>
       <c r="T39" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U39" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -4469,15 +4722,18 @@
       </c>
       <c r="T40" s="22">
         <v>1.85160913994369</v>
+      </c>
+      <c r="U40" s="22">
+        <v>1.8005774724175001</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -4529,15 +4785,18 @@
       </c>
       <c r="T41" s="20">
         <v>1.2002189208068399</v>
+      </c>
+      <c r="U41" s="20">
+        <v>1.16632353291075</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -4589,15 +4848,18 @@
       </c>
       <c r="T42" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U42" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -4649,15 +4911,18 @@
       </c>
       <c r="T43" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U43" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -4709,15 +4974,18 @@
       </c>
       <c r="T44" s="22">
         <v>1049.8981010060299</v>
+      </c>
+      <c r="U44" s="22">
+        <v>1212.39816205337</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -4769,15 +5037,18 @@
       </c>
       <c r="T45" s="20">
         <v>11.166401417224201</v>
+      </c>
+      <c r="U45" s="20">
+        <v>10.9140327476966</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -4829,15 +5100,18 @@
       </c>
       <c r="T46" s="22">
         <v>11.500831755039099</v>
+      </c>
+      <c r="U46" s="22">
+        <v>11.241397746374</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -4889,15 +5163,18 @@
       </c>
       <c r="T47" s="20">
         <v>9.4120103987383192</v>
+      </c>
+      <c r="U47" s="20">
+        <v>8.9159725847559006</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -4949,15 +5226,18 @@
       </c>
       <c r="T48" s="22">
         <v>4961.5808386683302</v>
+      </c>
+      <c r="U48" s="22">
+        <v>5595.17028158428</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -5009,15 +5289,18 @@
       </c>
       <c r="T49" s="20">
         <v>577.43104607176997</v>
+      </c>
+      <c r="U49" s="20">
+        <v>607.94193124660796</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -5069,15 +5352,18 @@
       </c>
       <c r="T50" s="22">
         <v>2839.9285626840801</v>
+      </c>
+      <c r="U50" s="22">
+        <v>2799.1521260530199</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -5129,15 +5415,18 @@
       </c>
       <c r="T51" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U51" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -5189,15 +5478,18 @@
       </c>
       <c r="T52" s="22">
         <v>884.20241533021704</v>
+      </c>
+      <c r="U52" s="22">
+        <v>898.75618095628602</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -5249,15 +5541,18 @@
       </c>
       <c r="T53" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U53" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -5309,33 +5604,36 @@
       </c>
       <c r="T54" s="22">
         <v>8.8418642835024492</v>
+      </c>
+      <c r="U54" s="22">
+        <v>9.2982688423819404</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
       </c>
       <c r="E55" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J55" s="20">
         <v>2.7566621902990098</v>
@@ -5369,33 +5667,36 @@
       </c>
       <c r="T55" s="20">
         <v>2.57808055421531</v>
+      </c>
+      <c r="U55" s="20">
+        <v>2.50527296978417</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
       </c>
       <c r="E56" s="21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J56" s="22">
         <v>2.7566621902990098</v>
@@ -5429,15 +5730,18 @@
       </c>
       <c r="T56" s="22">
         <v>2.57808055421531</v>
+      </c>
+      <c r="U56" s="22">
+        <v>2.50527296978417</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -5452,52 +5756,55 @@
         <v>0.62860422537546701</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="R57" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="S57" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T57" s="20" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="U57" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -5549,15 +5856,18 @@
       </c>
       <c r="T58" s="22">
         <v>30.803021683241798</v>
+      </c>
+      <c r="U58" s="22">
+        <v>30.722484335046001</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -5609,15 +5919,18 @@
       </c>
       <c r="T59" s="20">
         <v>8.7245702598964403</v>
+      </c>
+      <c r="U59" s="20">
+        <v>9.1830150890211701</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -5669,15 +5982,18 @@
       </c>
       <c r="T60" s="22">
         <v>255.96595205346301</v>
+      </c>
+      <c r="U60" s="22">
+        <v>248.73721645978301</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -5729,15 +6045,18 @@
       </c>
       <c r="T61" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U61" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -5789,15 +6108,18 @@
       </c>
       <c r="T62" s="22">
         <v>84.004954523523196</v>
+      </c>
+      <c r="U62" s="22">
+        <v>80.539767359512297</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -5849,15 +6171,18 @@
       </c>
       <c r="T63" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U63" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -5909,15 +6234,18 @@
       </c>
       <c r="T64" s="22">
         <v>22.589458675096999</v>
+      </c>
+      <c r="U64" s="22">
+        <v>21.919179054238501</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -5969,15 +6297,18 @@
       </c>
       <c r="T65" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U65" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -6029,15 +6360,18 @@
       </c>
       <c r="T66" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U66" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -6089,15 +6423,18 @@
       </c>
       <c r="T67" s="20">
         <v>21.712047125584199</v>
+      </c>
+      <c r="U67" s="20">
+        <v>21.098877105863899</v>
       </c>
     </row>
     <row r="68" ht="14.250000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -6121,43 +6458,46 @@
         <v>18.034884867002599</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N68" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q68" s="22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="R68" s="22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S68" s="22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="U68" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -6209,15 +6549,18 @@
       </c>
       <c r="T69" s="20">
         <v>21.0228786645831</v>
+      </c>
+      <c r="U69" s="20">
+        <v>21.264029178732301</v>
       </c>
     </row>
     <row r="70" ht="24.000000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -6269,15 +6612,18 @@
       </c>
       <c r="T70" s="22">
         <v>56.431014741147699</v>
+      </c>
+      <c r="U70" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6329,15 +6675,18 @@
       </c>
       <c r="T71" s="20">
         <v>1.17371727328015</v>
+      </c>
+      <c r="U71" s="20">
+        <v>1.23573533274612</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6379,25 +6728,28 @@
         <v>9.4813030338879205</v>
       </c>
       <c r="Q72" s="22" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="R72" s="22" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="S72" s="22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="U72" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6449,15 +6801,18 @@
       </c>
       <c r="T73" s="20">
         <v>2.9369954559529901</v>
+      </c>
+      <c r="U73" s="20">
+        <v>2.9639198704535898</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6509,15 +6864,18 @@
       </c>
       <c r="T74" s="22">
         <v>140.06167753988501</v>
+      </c>
+      <c r="U74" s="22">
+        <v>147.46239800666001</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6569,15 +6927,18 @@
       </c>
       <c r="T75" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U75" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6629,15 +6990,18 @@
       </c>
       <c r="T76" s="22">
         <v>74.375463586412494</v>
+      </c>
+      <c r="U76" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -6689,15 +7053,18 @@
       </c>
       <c r="T77" s="20">
         <v>4.7191836558334499</v>
+      </c>
+      <c r="U77" s="20">
+        <v>4.3353818721806903</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -6749,15 +7116,18 @@
       </c>
       <c r="T78" s="22">
         <v>8.2962344180955299</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -6809,15 +7179,18 @@
       </c>
       <c r="T79" s="20">
         <v>1.07322538453209</v>
+      </c>
+      <c r="U79" s="20">
+        <v>1.0418295651840499</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -6859,25 +7232,28 @@
         <v>9.4813030338879205</v>
       </c>
       <c r="Q80" s="22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="S80" s="22" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>223</v>
+        <v>233</v>
+      </c>
+      <c r="U80" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -6929,15 +7305,18 @@
       </c>
       <c r="T81" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U81" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -6989,15 +7368,18 @@
       </c>
       <c r="T82" s="22">
         <v>11.2275192095807</v>
+      </c>
+      <c r="U82" s="22">
+        <v>10.8038287289029</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7049,15 +7431,18 @@
       </c>
       <c r="T83" s="20">
         <v>1.07322538453209</v>
+      </c>
+      <c r="U83" s="20">
+        <v>1.0418295651840499</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7109,15 +7494,18 @@
       </c>
       <c r="T84" s="22">
         <v>14388.284424216699</v>
+      </c>
+      <c r="U84" s="22" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7169,15 +7557,18 @@
       </c>
       <c r="T85" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U85" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7229,15 +7620,18 @@
       </c>
       <c r="T86" s="22">
         <v>300.29597516977202</v>
+      </c>
+      <c r="U86" s="22">
+        <v>291.81531519552999</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7289,15 +7683,18 @@
       </c>
       <c r="T87" s="20">
         <v>103.930492643829</v>
+      </c>
+      <c r="U87" s="20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7349,15 +7746,18 @@
       </c>
       <c r="T88" s="22">
         <v>34.730777816985103</v>
+      </c>
+      <c r="U88" s="22">
+        <v>34.073671820437703</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7409,15 +7809,18 @@
       </c>
       <c r="T89" s="20">
         <v>428.27823106226998</v>
+      </c>
+      <c r="U89" s="20">
+        <v>455.86170893206798</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7469,15 +7872,18 @@
       </c>
       <c r="T90" s="22">
         <v>183.216551565212</v>
+      </c>
+      <c r="U90" s="22">
+        <v>182.479044581263</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7529,15 +7935,18 @@
       </c>
       <c r="T91" s="20">
         <v>105.216796410851</v>
+      </c>
+      <c r="U91" s="20">
+        <v>103.993321138206</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7589,15 +7998,18 @@
       </c>
       <c r="T92" s="22">
         <v>20314.993914865699</v>
+      </c>
+      <c r="U92" s="22">
+        <v>19970.8114705113</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -7649,15 +8061,18 @@
       </c>
       <c r="T93" s="20">
         <v>60491.275573766899</v>
+      </c>
+      <c r="U93" s="20">
+        <v>58782.941190466503</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -7709,15 +8124,18 @@
       </c>
       <c r="T94" s="22">
         <v>2088.3892757610001</v>
+      </c>
+      <c r="U94" s="22" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -7769,15 +8187,18 @@
       </c>
       <c r="T95" s="20">
         <v>1.07322538453209</v>
+      </c>
+      <c r="U95" s="20">
+        <v>1.0418295651840499</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -7829,15 +8250,18 @@
       </c>
       <c r="T96" s="22">
         <v>4.6304631183252596</v>
+      </c>
+      <c r="U96" s="22">
+        <v>4.3527368357702603</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -7889,15 +8313,18 @@
       </c>
       <c r="T97" s="20">
         <v>204.09900405435599</v>
+      </c>
+      <c r="U97" s="20" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -7949,15 +8376,18 @@
       </c>
       <c r="T98" s="22">
         <v>149.25502113594001</v>
+      </c>
+      <c r="U98" s="22">
+        <v>159.84761222293301</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8009,15 +8439,18 @@
       </c>
       <c r="T99" s="20">
         <v>1.07322538453209</v>
+      </c>
+      <c r="U99" s="20">
+        <v>1.0418295651840499</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8069,15 +8502,18 @@
       </c>
       <c r="T100" s="22">
         <v>1.0225906108898699</v>
+      </c>
+      <c r="U100" s="22">
+        <v>0.99371162488645803</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8129,15 +8565,18 @@
       </c>
       <c r="T101" s="20">
         <v>606.22340004176795</v>
+      </c>
+      <c r="U101" s="20">
+        <v>604.34461919151101</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8189,15 +8628,18 @@
       </c>
       <c r="T102" s="22">
         <v>157.23665008804599</v>
+      </c>
+      <c r="U102" s="22">
+        <v>158.351693397399</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8249,15 +8691,18 @@
       </c>
       <c r="T103" s="20">
         <v>1.8699928149078999</v>
+      </c>
+      <c r="U103" s="20">
+        <v>1.92887794634544</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8309,15 +8754,18 @@
       </c>
       <c r="T104" s="22">
         <v>1567.0120910537701</v>
+      </c>
+      <c r="U104" s="22">
+        <v>1660.75804801447</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8369,15 +8817,18 @@
       </c>
       <c r="T105" s="20">
         <v>1.17371727328015</v>
+      </c>
+      <c r="U105" s="20">
+        <v>1.23573533274612</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8429,15 +8880,18 @@
       </c>
       <c r="T106" s="22">
         <v>0.43726550629037197</v>
+      </c>
+      <c r="U106" s="22">
+        <v>0.42337713595514598</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8489,15 +8943,18 @@
       </c>
       <c r="T107" s="20">
         <v>119.037900664684</v>
+      </c>
+      <c r="U107" s="20">
+        <v>118.62761426634</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8549,15 +9006,18 @@
       </c>
       <c r="T108" s="22">
         <v>13357.0497540742</v>
+      </c>
+      <c r="U108" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8590,34 +9050,37 @@
         <v>0.79309957172623102</v>
       </c>
       <c r="N109" s="20" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="R109" s="20" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="S109" s="20" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="T109" s="20" t="s">
-        <v>288</v>
+        <v>304</v>
+      </c>
+      <c r="U109" s="20" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -8669,15 +9132,18 @@
       </c>
       <c r="T110" s="22">
         <v>2171.2047125584199</v>
+      </c>
+      <c r="U110" s="22">
+        <v>2109.8877105863899</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -8729,15 +9195,18 @@
       </c>
       <c r="T111" s="20">
         <v>21.0228786645831</v>
+      </c>
+      <c r="U111" s="20">
+        <v>21.264029178732301</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -8789,15 +9258,18 @@
       </c>
       <c r="T112" s="22">
         <v>236.520887493429</v>
+      </c>
+      <c r="U112" s="22" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -8848,16 +9320,19 @@
         <v>1.9308393613005199</v>
       </c>
       <c r="T113" s="20" t="s">
-        <v>297</v>
+        <v>315</v>
+      </c>
+      <c r="U113" s="20" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -8893,31 +9368,34 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="O114" s="22" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="Q114" s="22" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="S114" s="22" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="T114" s="22" t="s">
-        <v>305</v>
+        <v>324</v>
+      </c>
+      <c r="U114" s="22" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -8969,15 +9447,18 @@
       </c>
       <c r="T115" s="20">
         <v>5508.7964396563502</v>
+      </c>
+      <c r="U115" s="20">
+        <v>5537.7169545397901</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9029,15 +9510,18 @@
       </c>
       <c r="T116" s="22">
         <v>1113.4895068829701</v>
+      </c>
+      <c r="U116" s="22" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9089,15 +9573,18 @@
       </c>
       <c r="T117" s="20">
         <v>5.7797973542268304</v>
+      </c>
+      <c r="U117" s="20">
+        <v>5.8447038669378104</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9149,15 +9636,18 @@
       </c>
       <c r="T118" s="22">
         <v>22.194537061708299</v>
+      </c>
+      <c r="U118" s="22">
+        <v>21.539749164792401</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9209,15 +9699,18 @@
       </c>
       <c r="T119" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U119" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9232,52 +9725,55 @@
         <v>0.46083466862190797</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="N120" s="22" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="Q120" s="22" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="R120" s="22" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="S120" s="22" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="T120" s="22" t="s">
-        <v>330</v>
+        <v>351</v>
+      </c>
+      <c r="U120" s="22" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9329,15 +9825,18 @@
       </c>
       <c r="T121" s="20">
         <v>52.814644649762698</v>
+      </c>
+      <c r="U121" s="20" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9389,15 +9888,18 @@
       </c>
       <c r="T122" s="22">
         <v>56.931796086790598</v>
+      </c>
+      <c r="U122" s="22">
+        <v>60.923480006102203</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9449,15 +9951,18 @@
       </c>
       <c r="T123" s="20">
         <v>28.731483548533401</v>
+      </c>
+      <c r="U123" s="20">
+        <v>28.8085397617611</v>
       </c>
     </row>
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9509,15 +10014,18 @@
       </c>
       <c r="T124" s="22">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U124" s="22">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -9569,15 +10077,18 @@
       </c>
       <c r="T125" s="20">
         <v>24.793645535527801</v>
+      </c>
+      <c r="U125" s="20">
+        <v>24.836072571739699</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -9629,15 +10140,18 @@
       </c>
       <c r="T126" s="22">
         <v>4104.6066986886399</v>
+      </c>
+      <c r="U126" s="22" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -9689,15 +10203,18 @@
       </c>
       <c r="T127" s="20">
         <v>1.17371727328015</v>
+      </c>
+      <c r="U127" s="20">
+        <v>1.23573533274612</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -9749,15 +10266,18 @@
       </c>
       <c r="T128" s="22">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U128" s="22">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -9809,15 +10329,18 @@
       </c>
       <c r="T129" s="20">
         <v>12.825302636411401</v>
+      </c>
+      <c r="U129" s="20">
+        <v>12.988790652952501</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -9869,15 +10392,18 @@
       </c>
       <c r="T130" s="22">
         <v>107.876108106551</v>
+      </c>
+      <c r="U130" s="22" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -9929,15 +10455,18 @@
       </c>
       <c r="T131" s="20">
         <v>1914.26081821652</v>
+      </c>
+      <c r="U131" s="20" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -9989,15 +10518,18 @@
       </c>
       <c r="T132" s="22">
         <v>21.059245443350601</v>
+      </c>
+      <c r="U132" s="22">
+        <v>22.2625694023594</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10049,15 +10581,18 @@
       </c>
       <c r="T133" s="20">
         <v>1.8699928149078999</v>
+      </c>
+      <c r="U133" s="20">
+        <v>1.92887794634544</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10109,15 +10644,18 @@
       </c>
       <c r="T134" s="22">
         <v>169.70683335373701</v>
+      </c>
+      <c r="U134" s="22">
+        <v>169.89669597882701</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10138,46 +10676,49 @@
         <v>2.8061660403743001</v>
       </c>
       <c r="J135" s="20" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="K135" s="20" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="L135" s="20" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="N135" s="20" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="Q135" s="20" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="R135" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="S135" s="20" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="T135" s="20" t="s">
-        <v>371</v>
+        <v>397</v>
+      </c>
+      <c r="U135" s="20" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10229,15 +10770,18 @@
       </c>
       <c r="T136" s="22">
         <v>140.06167753988501</v>
+      </c>
+      <c r="U136" s="22">
+        <v>147.46239800666001</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10289,15 +10833,18 @@
       </c>
       <c r="T137" s="20">
         <v>1.9928994764624099</v>
+      </c>
+      <c r="U137" s="20">
+        <v>2.0485855004877598</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10349,15 +10896,18 @@
       </c>
       <c r="T138" s="22">
         <v>50.1566291956821</v>
+      </c>
+      <c r="U138" s="22" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10409,15 +10959,18 @@
       </c>
       <c r="T139" s="20">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U139" s="20">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10469,15 +11022,18 @@
       </c>
       <c r="T140" s="22">
         <v>548.742285562029</v>
+      </c>
+      <c r="U140" s="22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -10529,15 +11085,18 @@
       </c>
       <c r="T141" s="20">
         <v>72.352318472163205</v>
+      </c>
+      <c r="U141" s="20">
+        <v>76.100955502713106</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -10589,15 +11148,18 @@
       </c>
       <c r="T142" s="22">
         <v>12.285490015338899</v>
+      </c>
+      <c r="U142" s="22">
+        <v>12.344417649998</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -10649,15 +11211,18 @@
       </c>
       <c r="T143" s="20">
         <v>0.55378322519317602</v>
+      </c>
+      <c r="U143" s="20">
+        <v>0.53814383066034199</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -10709,15 +11274,18 @@
       </c>
       <c r="T144" s="22">
         <v>229.85496496547</v>
+      </c>
+      <c r="U144" s="22">
+        <v>247.05504462605001</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -10769,15 +11337,18 @@
       </c>
       <c r="T145" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U145" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -10829,15 +11400,18 @@
       </c>
       <c r="T146" s="22">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U146" s="22">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -10889,15 +11463,18 @@
       </c>
       <c r="T147" s="20">
         <v>5.0535735650598896</v>
+      </c>
+      <c r="U147" s="20" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -10949,15 +11526,18 @@
       </c>
       <c r="T148" s="22">
         <v>9962.0561272621198</v>
+      </c>
+      <c r="U148" s="22">
+        <v>9627.9529680486703</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11009,15 +11589,18 @@
       </c>
       <c r="T149" s="20">
         <v>5.21521211553834</v>
+      </c>
+      <c r="U149" s="20">
+        <v>5.5801806315807196</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11069,15 +11652,18 @@
       </c>
       <c r="T150" s="22">
         <v>69.184736034796899</v>
+      </c>
+      <c r="U150" s="22">
+        <v>71.062977523922598</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11129,15 +11715,18 @@
       </c>
       <c r="T151" s="20">
         <v>5.4131050027725198</v>
+      </c>
+      <c r="U151" s="20">
+        <v>5.6823509817450999</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11189,15 +11778,18 @@
       </c>
       <c r="T152" s="22">
         <v>5.2425772163931397</v>
+      </c>
+      <c r="U152" s="22">
+        <v>5.0945215698404303</v>
       </c>
     </row>
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11249,15 +11841,18 @@
       </c>
       <c r="T153" s="20">
         <v>5.7121047363228499</v>
+      </c>
+      <c r="U153" s="20">
+        <v>6.1172047871707598</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11309,15 +11904,18 @@
       </c>
       <c r="T154" s="22">
         <v>106.40084111678399</v>
+      </c>
+      <c r="U154" s="22">
+        <v>103.979465159211</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11369,15 +11967,18 @@
       </c>
       <c r="T155" s="20">
         <v>1400.6251283639299</v>
+      </c>
+      <c r="U155" s="20">
+        <v>1413.0548262894099</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11429,15 +12030,18 @@
       </c>
       <c r="T156" s="22">
         <v>3.6407190756357002</v>
+      </c>
+      <c r="U156" s="22">
+        <v>3.6447756101179398</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -11489,15 +12093,18 @@
       </c>
       <c r="T157" s="20">
         <v>1.17371727328015</v>
+      </c>
+      <c r="U157" s="20">
+        <v>1.23573533274612</v>
       </c>
     </row>
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -11549,15 +12156,18 @@
       </c>
       <c r="T158" s="22">
         <v>28.732635763306298</v>
+      </c>
+      <c r="U158" s="22" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -11609,15 +12219,18 @@
       </c>
       <c r="T159" s="20">
         <v>5.4010067476577603</v>
+      </c>
+      <c r="U159" s="20">
+        <v>5.2484768920059404</v>
       </c>
     </row>
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -11669,15 +12282,18 @@
       </c>
       <c r="T160" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U160" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -11729,15 +12345,18 @@
       </c>
       <c r="T161" s="20">
         <v>137.78141045490901</v>
+      </c>
+      <c r="U161" s="20">
+        <v>145.454469113063</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -11789,15 +12408,18 @@
       </c>
       <c r="T162" s="22">
         <v>31.134715510971201</v>
+      </c>
+      <c r="U162" s="22">
+        <v>20.5727697822092</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -11849,15 +12471,18 @@
       </c>
       <c r="T163" s="20">
         <v>14594.751661709701</v>
+      </c>
+      <c r="U163" s="20" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -11909,33 +12534,36 @@
       </c>
       <c r="T164" s="22">
         <v>1.9041789389542201</v>
+      </c>
+      <c r="U164" s="22">
+        <v>1.8918309906465101</v>
       </c>
     </row>
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
       </c>
       <c r="E165" s="19" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="J165" s="20">
         <v>2.7566621902990098</v>
@@ -11969,15 +12597,18 @@
       </c>
       <c r="T165" s="20">
         <v>2.57808055421531</v>
+      </c>
+      <c r="U165" s="20">
+        <v>2.50527296978417</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -11995,49 +12626,52 @@
         <v>32.9386649251352</v>
       </c>
       <c r="I166" s="22" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="J166" s="22" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="N166" s="22" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="O166" s="22" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="P166" s="22" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="Q166" s="22" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="R166" s="22" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="S166" s="22" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="T166" s="22" t="s">
-        <v>450</v>
+        <v>482</v>
+      </c>
+      <c r="U166" s="22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12049,55 +12683,58 @@
         <v>273.69794017294601</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="H167" s="20" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="J167" s="20" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="L167" s="20" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="N167" s="20" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="O167" s="20" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="P167" s="20" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="Q167" s="20" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="R167" s="20" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="S167" s="20" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="T167" s="20" t="s">
-        <v>466</v>
+        <v>499</v>
+      </c>
+      <c r="U167" s="20" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12149,30 +12786,33 @@
       </c>
       <c r="T168" s="22">
         <v>11.587035125036801</v>
+      </c>
+      <c r="U168" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
       </c>
       <c r="E169" s="19" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="I169" s="20">
         <v>49774.174179823502</v>
@@ -12202,22 +12842,25 @@
         <v>33616.688574598302</v>
       </c>
       <c r="R169" s="20" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="T169" s="20" t="s">
-        <v>477</v>
+        <v>512</v>
+      </c>
+      <c r="U169" s="20" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12269,36 +12912,39 @@
       </c>
       <c r="T170" s="22">
         <v>21.151708284814401</v>
+      </c>
+      <c r="U170" s="22">
+        <v>22.261110131716599</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
       </c>
       <c r="E171" s="19" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="K171" s="20">
         <v>4.5290341796230296</v>
@@ -12329,15 +12975,18 @@
       </c>
       <c r="T171" s="20">
         <v>255.33208990155799</v>
+      </c>
+      <c r="U171" s="20">
+        <v>604.67212414957203</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12389,15 +13038,18 @@
       </c>
       <c r="T172" s="22">
         <v>268.47785227166298</v>
+      </c>
+      <c r="U172" s="22" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -12449,15 +13101,18 @@
       </c>
       <c r="T173" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U173" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -12509,15 +13164,18 @@
       </c>
       <c r="T174" s="22">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U174" s="22">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -12569,15 +13227,18 @@
       </c>
       <c r="T175" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U175" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -12629,15 +13290,18 @@
       </c>
       <c r="T176" s="22">
         <v>79.214765632313899</v>
+      </c>
+      <c r="U176" s="22" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -12689,15 +13353,18 @@
       </c>
       <c r="T177" s="20">
         <v>20.385559868359501</v>
+      </c>
+      <c r="U177" s="20">
+        <v>29.523732212911799</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -12749,15 +13416,18 @@
       </c>
       <c r="T178" s="22">
         <v>11.7773633005192</v>
+      </c>
+      <c r="U178" s="22">
+        <v>12.649669066036999</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -12809,15 +13479,18 @@
       </c>
       <c r="T179" s="20">
         <v>1.2691645722762701</v>
+      </c>
+      <c r="U179" s="20">
+        <v>1.27740929582235</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -12862,22 +13535,25 @@
         <v>621.63459279017798</v>
       </c>
       <c r="R180" s="22" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="T180" s="22" t="s">
-        <v>508</v>
+        <v>546</v>
+      </c>
+      <c r="U180" s="22" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -12929,15 +13605,18 @@
       </c>
       <c r="T181" s="20">
         <v>41.059173429927299</v>
+      </c>
+      <c r="U181" s="20">
+        <v>38.754753370571898</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -12989,15 +13668,18 @@
       </c>
       <c r="T182" s="22">
         <v>16.275033666275402</v>
+      </c>
+      <c r="U182" s="22">
+        <v>15.8154103679112</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13049,15 +13731,18 @@
       </c>
       <c r="T183" s="20">
         <v>3310.4064459001302</v>
+      </c>
+      <c r="U183" s="20" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13109,15 +13794,18 @@
       </c>
       <c r="T184" s="22">
         <v>43.2614879413523</v>
+      </c>
+      <c r="U184" s="22">
+        <v>46.7742861021732</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13169,15 +13857,18 @@
       </c>
       <c r="T185" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U185" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13229,15 +13920,18 @@
       </c>
       <c r="T186" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U186" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13289,15 +13983,18 @@
       </c>
       <c r="T187" s="20">
         <v>3.27408153226204</v>
+      </c>
+      <c r="U187" s="20" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -13349,15 +14046,18 @@
       </c>
       <c r="T188" s="22">
         <v>9.6968955013214497</v>
+      </c>
+      <c r="U188" s="22">
+        <v>9.4774896325086502</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -13409,15 +14109,18 @@
       </c>
       <c r="T189" s="20">
         <v>3.8954941201039901</v>
+      </c>
+      <c r="U189" s="20">
+        <v>4.0399276130067099</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -13469,15 +14172,18 @@
       </c>
       <c r="T190" s="22">
         <v>10.5817964468577</v>
+      </c>
+      <c r="U190" s="22" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -13529,15 +14235,18 @@
       </c>
       <c r="T191" s="20">
         <v>5257.0807198461798</v>
+      </c>
+      <c r="U191" s="20">
+        <v>4960.7343948786101</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -13589,15 +14298,18 @@
       </c>
       <c r="T192" s="22">
         <v>40.723014769953103</v>
+      </c>
+      <c r="U192" s="22">
+        <v>38.178400628137702</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -13649,15 +14361,18 @@
       </c>
       <c r="T193" s="20">
         <v>5.2893859415394999</v>
+      </c>
+      <c r="U193" s="20">
+        <v>5.1400083695711496</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -13709,15 +14424,18 @@
       </c>
       <c r="T194" s="22">
         <v>1.07322538453209</v>
+      </c>
+      <c r="U194" s="22">
+        <v>1.0418295651840499</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -13769,15 +14487,18 @@
       </c>
       <c r="T195" s="20">
         <v>1.4402684660420699</v>
+      </c>
+      <c r="U195" s="20">
+        <v>1.39959383786825</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -13829,42 +14550,45 @@
       </c>
       <c r="T196" s="22">
         <v>60.9809668522213</v>
+      </c>
+      <c r="U196" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
       </c>
       <c r="E197" s="19" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="F197" s="20" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="H197" s="20" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="I197" s="20" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="L197" s="20" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="M197" s="20">
         <v>3391.3861686514701</v>
@@ -13889,15 +14613,18 @@
       </c>
       <c r="T197" s="20">
         <v>15089.5774972455</v>
+      </c>
+      <c r="U197" s="20">
+        <v>15168.3221529112</v>
       </c>
     </row>
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -13949,15 +14676,18 @@
       </c>
       <c r="T198" s="22">
         <v>155.116913792731</v>
+      </c>
+      <c r="U198" s="22" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14002,22 +14732,25 @@
         <v>14.205738976132899</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>557</v>
+        <v>601</v>
+      </c>
+      <c r="U199" s="20" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14069,15 +14802,18 @@
       </c>
       <c r="T200" s="22">
         <v>33314.849888019096</v>
+      </c>
+      <c r="U200" s="22" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14129,15 +14865,18 @@
       </c>
       <c r="T201" s="20">
         <v>1169.3779720539901</v>
+      </c>
+      <c r="U201" s="20" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14189,15 +14928,18 @@
       </c>
       <c r="T202" s="22">
         <v>30.4847223522465</v>
+      </c>
+      <c r="U202" s="22" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>564</v>
+        <v>612</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>565</v>
+        <v>613</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14215,49 +14957,52 @@
         <v>7547320.9321095496</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>567</v>
+        <v>615</v>
       </c>
       <c r="K203" s="20" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
       <c r="L203" s="20" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
       <c r="M203" s="20" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="N203" s="20" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="O203" s="20" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="P203" s="20" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="Q203" s="20" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="R203" s="20" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="S203" s="20">
         <v>23.194686630980499</v>
       </c>
       <c r="T203" s="20">
         <v>117.79466092479601</v>
+      </c>
+      <c r="U203" s="20" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -14309,15 +15054,18 @@
       </c>
       <c r="T204" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U204" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -14369,15 +15117,18 @@
       </c>
       <c r="T205" s="20">
         <v>3.8887248583135898</v>
+      </c>
+      <c r="U205" s="20">
+        <v>3.77890336224428</v>
       </c>
     </row>
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>
@@ -14429,6 +15180,9 @@
       </c>
       <c r="T206" s="22">
         <v>769.90806142902602</v>
+      </c>
+      <c r="U206" s="22">
+        <v>810.58924166214399</v>
       </c>
     </row>
   </sheetData>
